--- a/documents/Java-Spring.xlsx
+++ b/documents/Java-Spring.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="769">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -7160,6 +7160,18 @@
     </r>
   </si>
   <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role base: set roles for user </t>
+  </si>
+  <si>
+    <t>Policy base:</t>
+  </si>
+  <si>
+    <t>Context base:</t>
+  </si>
+  <si>
     <t>JDBC là gì?</t>
   </si>
   <si>
@@ -11457,10 +11469,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -11598,23 +11610,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11628,11 +11633,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11644,16 +11648,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11668,7 +11672,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11689,24 +11693,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11806,18 +11818,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -11830,7 +11830,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11842,19 +11914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11866,13 +11926,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11884,7 +11962,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11896,49 +11974,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11950,31 +11986,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12088,26 +12100,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -12140,6 +12132,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -12149,136 +12161,136 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13375,230 +13387,230 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="34" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:2">
       <c r="A2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B3" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" ht="51" spans="1:2">
       <c r="A4" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B5" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B6" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B8" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" ht="63.75" spans="1:2">
       <c r="A9" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B10" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" ht="25.5" spans="1:2">
       <c r="A14" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" ht="51" spans="1:2">
       <c r="A15" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="35" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B16" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" ht="51" spans="1:2">
       <c r="A19" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B23" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B24" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B25" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B26" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" ht="63.75" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5"/>
       <c r="B29" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5"/>
       <c r="B30" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5"/>
       <c r="B31" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5"/>
       <c r="B32" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5"/>
       <c r="B33" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5"/>
       <c r="B34" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -13628,7 +13640,7 @@
   <sheetData>
     <row r="1" ht="12.75" spans="1:1">
       <c r="A1" s="29" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" ht="12.75" spans="1:3">
@@ -13726,22 +13738,22 @@
     </row>
     <row r="26" ht="17.25" spans="1:2">
       <c r="A26" s="29" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:2">
       <c r="A27" s="29"/>
       <c r="B27" s="27" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="1:2">
       <c r="A28" s="29"/>
       <c r="B28" s="27" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -13749,74 +13761,74 @@
     </row>
     <row r="30" ht="12.75" spans="1:3">
       <c r="A30" s="29" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" ht="12.75" spans="1:3">
       <c r="A31" s="29"/>
       <c r="C31" s="28" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" ht="12.75" spans="1:3">
       <c r="A32" s="29"/>
       <c r="C32" s="28" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="33" ht="12.75" spans="1:3">
       <c r="A33" s="29"/>
       <c r="C33" s="28" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="35" ht="114.75" spans="1:3">
       <c r="A35" s="29" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" ht="89.25" spans="1:3">
       <c r="A36" s="29"/>
       <c r="B36" s="27" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C36" s="92" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" ht="76.5" spans="1:3">
       <c r="A37" s="29"/>
       <c r="B37" s="27" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="38" ht="51" spans="1:3">
       <c r="A38" s="29"/>
       <c r="B38" s="27" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="29" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -13852,140 +13864,140 @@
   <sheetData>
     <row r="1" ht="127.5" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" ht="200.25" customHeight="1" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:1">
       <c r="A6" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" ht="114.75" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" ht="51" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" ht="89.25" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" ht="102" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" ht="178.5" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" ht="25.5" spans="1:2">
       <c r="A18" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" ht="280.5" spans="1:2">
       <c r="A19" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -13993,145 +14005,145 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" ht="38.25" spans="1:2">
       <c r="A33" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="34" ht="114.75" spans="1:2">
       <c r="A34" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="23" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="23"/>
       <c r="B55" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="23"/>
       <c r="B56" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="58" ht="25.5" spans="1:2">
       <c r="A58" s="24" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="24"/>
       <c r="B59" s="25" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="24"/>
       <c r="B60" s="25" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="24"/>
       <c r="B62" s="25" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="24"/>
       <c r="B63" s="25" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="24"/>
       <c r="B64" s="25" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -14164,276 +14176,276 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" ht="89.25" spans="1:2">
       <c r="A2" s="5"/>
       <c r="B2" s="14" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" ht="102" spans="1:2">
       <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" s="5"/>
       <c r="B5" s="14" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5"/>
       <c r="B6" s="14" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:2">
       <c r="A8" s="5"/>
       <c r="B8" s="14" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5"/>
       <c r="B9" s="14" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5"/>
       <c r="B10" s="14" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5"/>
       <c r="B11" s="14" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="12" ht="51" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13" ht="63.75" spans="1:2">
       <c r="A13" s="5"/>
       <c r="B13" s="14" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14" ht="127.5" spans="1:2">
       <c r="A14" s="5"/>
       <c r="B14" s="14" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5"/>
       <c r="B15" s="14" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5"/>
       <c r="B16" s="14" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17" ht="102" spans="1:2">
       <c r="A17" s="5"/>
       <c r="B17" s="14" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="18" ht="38.25" spans="1:2">
       <c r="A18" s="5"/>
       <c r="B18" s="14" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5"/>
       <c r="B19" s="14" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5"/>
       <c r="B20" s="15" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21" ht="165.75" spans="1:2">
       <c r="A21" s="16" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="22" ht="242.25" spans="1:2">
       <c r="A22" s="16"/>
       <c r="B22" s="14" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" ht="153" spans="1:2">
       <c r="A23" s="16"/>
       <c r="B23" s="14" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:2">
       <c r="A24" s="16"/>
       <c r="B24" s="14" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="25" ht="25.5" spans="1:2">
       <c r="A25" s="16"/>
       <c r="B25" s="14" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="26" ht="51" spans="1:2">
       <c r="A26" s="16"/>
       <c r="B26" s="14" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="16"/>
       <c r="B27" s="14" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="16"/>
       <c r="B28" s="15" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="29" ht="38.25" spans="1:2">
       <c r="A29" s="18" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5"/>
       <c r="B30" s="14" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5"/>
       <c r="B31" s="14" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5"/>
       <c r="B32" s="14" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5"/>
       <c r="B33" s="14" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="34" ht="51" spans="1:2">
       <c r="A34" s="16" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="35" ht="38.25" spans="1:2">
       <c r="A35" s="5"/>
       <c r="B35" s="2" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="36" ht="51" spans="1:2">
       <c r="A36" s="5"/>
       <c r="B36" s="2" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="37" ht="51" spans="1:2">
       <c r="A37" s="5"/>
       <c r="B37" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="38" ht="25.5" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="39" ht="76.5" spans="1:2">
       <c r="A39" s="5"/>
       <c r="B39" s="2" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="40" ht="25.5" spans="1:2">
       <c r="A40" s="5"/>
       <c r="B40" s="2" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="41" ht="25.5" spans="1:2">
       <c r="A41" s="5"/>
       <c r="B41" s="2" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5"/>
       <c r="B42" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:2">
       <c r="A43" s="5"/>
       <c r="B43" s="2" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -14442,10 +14454,10 @@
     </row>
     <row r="45" ht="25.5" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -14486,18 +14498,18 @@
   <sheetData>
     <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" ht="178.5" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -14555,22 +14567,22 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -14597,10 +14609,10 @@
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -14608,120 +14620,120 @@
     </row>
     <row r="3" ht="140.25" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" ht="127.5" spans="1:3">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10"/>
       <c r="B5" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="10"/>
       <c r="B6" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10"/>
       <c r="B7" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" ht="76.5" spans="1:3">
       <c r="A8" s="10"/>
       <c r="B8" s="12" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9" ht="102" spans="1:3">
       <c r="A9" s="10"/>
       <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" ht="76.5" spans="1:3">
       <c r="A10" s="10"/>
       <c r="B10" s="12"/>
       <c r="C10" s="2" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="10"/>
       <c r="B11" s="12"/>
       <c r="C11" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="12" ht="63.75" spans="1:3">
       <c r="A12" s="10"/>
       <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="10"/>
       <c r="B13" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="14" ht="191.25" spans="1:3">
       <c r="A14" s="10"/>
       <c r="B14" s="13" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="15" ht="153" spans="1:3">
       <c r="A15" s="10"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16" ht="102" spans="1:3">
       <c r="A16" s="10"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" ht="38.25" spans="1:3">
       <c r="A17" s="10"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="18" ht="76.5" spans="1:3">
       <c r="A18" s="10"/>
       <c r="B18" s="13"/>
       <c r="C18" s="2" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -14730,13 +14742,13 @@
     <row r="20" spans="1:2">
       <c r="A20" s="10"/>
       <c r="B20" s="15" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10"/>
       <c r="B21" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -14747,40 +14759,40 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="10" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B24" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10"/>
       <c r="B25" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10"/>
       <c r="B26" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="10"/>
       <c r="B27" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="28" ht="51" spans="1:2">
       <c r="A28" s="10"/>
       <c r="B28" s="2" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="29" ht="127.5" spans="1:2">
       <c r="A29" s="10"/>
       <c r="B29" s="2" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -14788,41 +14800,41 @@
     </row>
     <row r="31" ht="102" spans="1:6">
       <c r="A31" s="10" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="F31" s="17"/>
     </row>
     <row r="32" ht="51" spans="1:2">
       <c r="A32" s="10"/>
       <c r="B32" s="2" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:2">
       <c r="A33" s="10"/>
       <c r="B33" s="2" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="10"/>
       <c r="B34" s="2" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="10"/>
       <c r="B35" s="2" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="36" ht="114.75" spans="1:3">
       <c r="A36" s="10"/>
       <c r="B36" s="2" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C36" s="2"/>
     </row>
@@ -15560,26 +15572,26 @@
   <sheetData>
     <row r="1" ht="153" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -15621,96 +15633,96 @@
   <sheetData>
     <row r="2" ht="51" spans="1:2">
       <c r="A2" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3" ht="127.5" spans="1:2">
       <c r="A3" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="4" ht="114.75" spans="1:2">
       <c r="A4" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" ht="63.75" spans="1:2">
       <c r="A5" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:2">
       <c r="A6" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:2">
       <c r="A7" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="8" ht="63.75" spans="1:2">
       <c r="A8" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B9" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5"/>
       <c r="B10" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5"/>
       <c r="B11" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5"/>
       <c r="B12" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -15740,110 +15752,110 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="6" ht="51" spans="1:2">
       <c r="A6" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:2">
       <c r="A10" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="27" ht="89.25" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4"/>
       <c r="B28" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -15863,8 +15875,8 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -16118,10 +16130,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="2"/>
@@ -16824,8 +16836,26 @@
         <v>364</v>
       </c>
     </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A63:B63"/>
@@ -16849,6 +16879,7 @@
     <mergeCell ref="A100:A105"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A113"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C64:C67"/>
   </mergeCells>
@@ -16872,7 +16903,7 @@
   <sheetPr/>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="B53" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -16885,114 +16916,114 @@
   <sheetData>
     <row r="1" ht="51" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" ht="63.75" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
       <c r="A3" s="45" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="45" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" ht="64.5" customHeight="1" spans="1:2">
       <c r="A5" s="91" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" ht="52.5" customHeight="1" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" ht="82.5" customHeight="1" spans="1:1">
       <c r="A7" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="47" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="41"/>
       <c r="B9" s="37" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C9" s="41"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="41"/>
       <c r="B10" s="40" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C10" s="41"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="41"/>
       <c r="B11" s="37" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C11" s="41"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="42"/>
       <c r="B12" s="40" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C12" s="42"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" ht="293.25" spans="1:2">
@@ -17000,185 +17031,185 @@
         <v>23</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" ht="89.25" spans="1:3">
       <c r="A22" s="6" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" ht="153" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" ht="63.75" spans="1:11">
       <c r="A26" s="6" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="K26" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="25" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" ht="25.5" spans="1:2">
       <c r="A29" s="6" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" ht="102" spans="1:2">
       <c r="A31" s="6" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="32" ht="25.5" spans="1:2">
       <c r="A32" s="6" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="33" ht="127.5" spans="1:2">
       <c r="A33" s="6" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" ht="229.5" spans="1:3">
       <c r="A34" s="44" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" ht="38.25" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="6" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="6" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="6" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" ht="165.75" spans="1:3">
       <c r="A41" s="6" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" ht="140.25" spans="1:3">
       <c r="A43" s="50" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" ht="102" spans="1:3">
       <c r="A44" s="50"/>
       <c r="B44" s="24" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45" ht="140.25" spans="1:3">
       <c r="A45" s="50"/>
       <c r="B45" s="24" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" ht="25.5" spans="1:3">
       <c r="A46" s="50"/>
       <c r="B46" s="24" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -17209,8 +17240,8 @@
   <sheetPr/>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -17221,46 +17252,46 @@
   <sheetData>
     <row r="1" ht="25.5" spans="1:2">
       <c r="A1" s="43" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="29"/>
       <c r="B2" s="14" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" ht="63.75" spans="1:2">
       <c r="A3" s="29"/>
       <c r="B3" s="14" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" ht="63.75" spans="1:2">
       <c r="A4" s="29"/>
       <c r="B4" s="14" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" ht="25.5" spans="1:2">
       <c r="A5" s="29"/>
       <c r="B5" s="14" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" ht="114.75" spans="1:2">
       <c r="A6" s="29"/>
       <c r="B6" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:2">
       <c r="A7" s="29"/>
       <c r="B7" s="30" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -17350,22 +17381,22 @@
     </row>
     <row r="36" ht="51" spans="1:2">
       <c r="A36" s="29" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="29"/>
       <c r="B37" s="15" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="1:2">
       <c r="A38" s="29"/>
       <c r="B38" s="30" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -17484,88 +17515,88 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="37" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="40" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="40"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="37" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="40" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="40"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="37" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="37"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="40" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="40"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="37" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="37"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B12" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -17599,92 +17630,92 @@
   <sheetData>
     <row r="2" ht="140.25" spans="1:2">
       <c r="A2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:2">
       <c r="A3" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B6" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" ht="63.75" spans="1:2">
       <c r="A10" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" ht="63.75" spans="1:4">
       <c r="A11" s="36" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" ht="76.5" spans="1:4">
       <c r="A12" s="36"/>
       <c r="B12" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
